--- a/data/trans_dic/P3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que reside en vivienda unifamiliar independiente</t>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>33,84%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>33,76%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>32,87%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>31,38%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,15; 40,91</t>
+          <t>29,49; 45,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,16; 44,04</t>
+          <t>29,68; 46,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,86; 43,76</t>
+          <t>30,21; 47,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,42; 43,19</t>
+          <t>28,73; 46,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,53; 34,6</t>
+          <t>21,66; 40,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,15; 35,71</t>
+          <t>23,86; 36,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,15; 34,75</t>
+          <t>23,66; 36,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,36; 33,22</t>
+          <t>23,01; 35,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,64; 35,7</t>
+          <t>22,14; 34,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,35; 37,96</t>
+          <t>24,81; 39,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,18; 37,15</t>
+          <t>28,07; 38,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,42; 36,07</t>
+          <t>28,56; 39,22</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>28,3; 39,23</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>27,24; 38,57</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>25,51; 37,13</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>62,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,43%</t>
+          <t>65,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,77%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,88%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,48%</t>
+          <t>54,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>57,16%</t>
+          <t>53,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>58,57%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>58,72%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>58,75%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>60,99%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>58,96%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,5; 65,65</t>
+          <t>53,15; 71,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,92; 67,45</t>
+          <t>53,72; 72,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,58; 66,72</t>
+          <t>56,04; 74,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,41; 66,91</t>
+          <t>60,93; 78,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,8; 60,43</t>
+          <t>56,14; 73,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,28; 61,37</t>
+          <t>48,24; 63,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,35; 58,9</t>
+          <t>47,47; 62,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,87; 58,75</t>
+          <t>44,71; 60,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,98; 60,43</t>
+          <t>45,65; 60,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,76; 62,14</t>
+          <t>42,3; 62,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,7; 59,81</t>
+          <t>52,21; 64,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,75; 60,17</t>
+          <t>52,11; 64,49</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>52,55; 64,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>54,85; 66,74</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>52,03; 65,47</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>76,84%</t>
+          <t>65,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>63,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,94%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,26%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,79%</t>
+          <t>76,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>80,33%</t>
+          <t>75,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>80,0%</t>
+          <t>67,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>75,49%</t>
+          <t>70,03%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>64,46%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>63,13%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>74,47%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,29; 90,43</t>
+          <t>26,27; 88,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>44,92; 90,24</t>
+          <t>26,47; 88,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,52; 85,32</t>
+          <t>25,32; 77,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,2; 84,52</t>
+          <t>24,63; 78,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,95; 91,58</t>
+          <t>60,81; 94,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,09; 92,28</t>
+          <t>61,23; 89,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>71,21; 90,91</t>
+          <t>60,64; 88,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>68,27; 88,71</t>
+          <t>60,06; 87,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,36; 87,96</t>
+          <t>54,84; 84,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63,94; 88,31</t>
+          <t>50,62; 82,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>65,64; 85,38</t>
+          <t>48,2; 84,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,24; 83,97</t>
+          <t>46,37; 83,21</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>43,65; 78,23</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>41,3; 77,13</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>60,83; 85,2</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>51,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>50,09%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>44,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>46,22%</t>
+          <t>47,79%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>47,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>47,48%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>46,87%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,74; 54,27</t>
+          <t>43,55; 56,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,03; 56,33</t>
+          <t>43,63; 57,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,73; 55,93</t>
+          <t>44,38; 58,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,62; 55,41</t>
+          <t>45,04; 59,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,5; 48,39</t>
+          <t>41,84; 57,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,5; 49,35</t>
+          <t>39,51; 49,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,27; 47,44</t>
+          <t>39,55; 49,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,36; 46,62</t>
+          <t>37,7; 47,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,25; 49,85</t>
+          <t>37,27; 47,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,23; 51,34</t>
+          <t>37,75; 48,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,87; 50,39</t>
+          <t>43,42; 51,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>42,85; 49,88</t>
+          <t>43,6; 51,61</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>43,04; 51,29</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>43,4; 51,95</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>41,91; 51,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que reside en vivienda unifamiliar independiente (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>137347</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>167104</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>144038</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>144806</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>129365</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>150637</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>121756</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>114302</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>175840</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>266712</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>317742</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>265794</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>259108</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>335647</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>107863; 166015</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>127636; 199862</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>110605; 174094</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>109391; 177132</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>109578; 204318</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>103856; 158511</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>120382; 186445</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>96889; 150757</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>90235; 142257</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>139830; 220240</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>224887; 310181</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>268153; 368213</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>222763; 308852</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>214754; 304039</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>272846; 397106</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>189704</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>227345</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>209736</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>225056</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>267090</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>193793</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>233423</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>176097</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>176030</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>230279</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>383497</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>460768</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>385833</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>401086</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>497369</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>161968; 217001</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>193067; 258924</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>178407; 236323</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>196578; 253194</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>231487; 303357</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>168894; 221701</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>201927; 266007</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>151291; 203442</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>152940; 202221</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>182402; 269266</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>341898; 420936</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>408941; 506064</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>345114; 424628</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>360674; 438875</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>438898; 552243</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>55490</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>64701</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42274</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46347</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96696</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>63964</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>77423</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61602</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59795</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>75135</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>119454</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>142124</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>103876</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>106142</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>171831</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22281; 75236</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26941; 90462</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20158; 61388</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21077; 67468</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72609; 113285</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50580; 73597</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>61352; 89472</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48980; 71145</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45270; 70134</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>56362; 91661</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>80700; 141579</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>94092; 168862</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>70348; 126078</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>69435; 129697</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>140354; 196610</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>331.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>382541</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>459150</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>396048</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>416208</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>523594</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>387122</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>461483</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>359455</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>350128</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>481253</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>769663</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>920634</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>755503</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>766336</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1004847</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>328941; 429421</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>388839; 515035</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>339111; 443144</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>355347; 470026</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>434108; 596983</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>342934; 430139</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>409481; 512588</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>317044; 400487</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>307480; 391803</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>417571; 541584</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>704774; 831261</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>840003; 994339</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>690814; 823357</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>700542; 838480</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>898518; 1096793</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
